--- a/Day2/Union_data.xlsx
+++ b/Day2/Union_data.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Jan2021" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Feb2021" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="March2021" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Apr2021" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t xml:space="preserve">DAY</t>
   </si>
@@ -60,6 +61,9 @@
     <t xml:space="preserve">Sam</t>
   </si>
   <si>
+    <t xml:space="preserve">Kind</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mario</t>
   </si>
   <si>
@@ -67,6 +71,12 @@
   </si>
   <si>
     <t xml:space="preserve">Jim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April</t>
   </si>
 </sst>
 </file>
@@ -81,6 +91,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -99,67 +110,78 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Mangal"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
       <name val="Mangal"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Mangal"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Mangal"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Mangal"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Mangal"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Mangal"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -168,30 +190,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -209,6 +207,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -260,22 +282,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -310,22 +364,22 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Status" xfId="26"/>
-    <cellStyle name="Good" xfId="27"/>
-    <cellStyle name="Neutral" xfId="28"/>
-    <cellStyle name="Bad" xfId="29"/>
-    <cellStyle name="Warning" xfId="30"/>
-    <cellStyle name="Error" xfId="31"/>
-    <cellStyle name="Accent" xfId="32"/>
-    <cellStyle name="Accent 1" xfId="33"/>
-    <cellStyle name="Accent 2" xfId="34"/>
-    <cellStyle name="Accent 3" xfId="35"/>
+    <cellStyle name="Accent 1 16" xfId="20"/>
+    <cellStyle name="Accent 15" xfId="21"/>
+    <cellStyle name="Accent 2 17" xfId="22"/>
+    <cellStyle name="Accent 3 18" xfId="23"/>
+    <cellStyle name="Bad 12" xfId="24"/>
+    <cellStyle name="Error 14" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 10" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Neutral 11" xfId="31"/>
+    <cellStyle name="Note 7" xfId="32"/>
+    <cellStyle name="Status 9" xfId="33"/>
+    <cellStyle name="Text 6" xfId="34"/>
+    <cellStyle name="Warning 13" xfId="35"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -397,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -548,7 +602,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -561,10 +615,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -587,19 +641,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -607,13 +667,16 @@
         <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,22 +684,120 @@
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>